--- a/presentations/Appendix A Misclassifications_Explanations.xlsx
+++ b/presentations/Appendix A Misclassifications_Explanations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\meng-ucalgary\ensf-612-project\presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1F866C-70B6-49E0-B836-7D2E93E4EFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FB439D-2144-4D07-8E36-FCFA759D3BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1415,9 +1415,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1428,6 +1425,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1715,41 +1715,41 @@
   </sheetPr>
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.77734375" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="12" hidden="1"/>
+    <col min="1" max="1" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.77734375" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -2349,7 +2349,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>6</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>6</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>6</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>13</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>14</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>14</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>14</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>15</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>15</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>16</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>16</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>16</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>19</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>21</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>22</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <v>25</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>31</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>31</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>31</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="10">
         <v>32</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <v>34</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
         <v>34</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
         <v>37</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="7">
         <v>46</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="7">
         <v>49</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="7">
         <v>50</v>
       </c>
